--- a/CheckList_Backlock.xlsx
+++ b/CheckList_Backlock.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Archivos de trabajo\Prueba\Z\automa\Indicadores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SQA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Check_List" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="275">
   <si>
     <t>Recuerde que debe contestar todas las preguntas</t>
   </si>
@@ -811,9 +811,6 @@
     <t>Solicitar internet para configuraciones adicionales</t>
   </si>
   <si>
-    <t>Proyecto/SAR</t>
-  </si>
-  <si>
     <t>DIRECTOR</t>
   </si>
   <si>
@@ -863,6 +860,111 @@
   </si>
   <si>
     <t>DESCRIPCION GENERAL PROCESO</t>
+  </si>
+  <si>
+    <t>Mauricio Parra</t>
+  </si>
+  <si>
+    <t>Proyecto/Funcionalidades</t>
+  </si>
+  <si>
+    <t>Cimulador</t>
+  </si>
+  <si>
+    <t>Liquidador - Web Service</t>
+  </si>
+  <si>
+    <t>Rodrigo Orosco</t>
+  </si>
+  <si>
+    <t>Nomina pensionados</t>
+  </si>
+  <si>
+    <t>TIPO AUTOMA</t>
+  </si>
+  <si>
+    <t>Web Service</t>
+  </si>
+  <si>
+    <t>PL/SQL</t>
+  </si>
+  <si>
+    <t>Sandra Barreto</t>
+  </si>
+  <si>
+    <t>Radicacion Solicitud pensional</t>
+  </si>
+  <si>
+    <t>Rodrigo Perez</t>
+  </si>
+  <si>
+    <t>Formularios electronicos</t>
+  </si>
+  <si>
+    <t>Integración definición</t>
+  </si>
+  <si>
+    <t>Servicio de certificación</t>
+  </si>
+  <si>
+    <t>Retiros Voluntarias</t>
+  </si>
+  <si>
+    <t>Definir</t>
+  </si>
+  <si>
+    <t>Jesus Orjuela</t>
+  </si>
+  <si>
+    <t>Miuriel Romero</t>
+  </si>
+  <si>
+    <t>Vigencias</t>
+  </si>
+  <si>
+    <t>Maicol Gomez</t>
+  </si>
+  <si>
+    <t>Cuentas</t>
+  </si>
+  <si>
+    <t>Planillas</t>
+  </si>
+  <si>
+    <t>Claudia Guitches</t>
+  </si>
+  <si>
+    <t>Juan Pablo Tongimo</t>
+  </si>
+  <si>
+    <t>Pagos</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Nubia Velasquez</t>
+  </si>
+  <si>
+    <t>Bancos</t>
+  </si>
+  <si>
+    <t>Chequeras</t>
+  </si>
+  <si>
+    <t>Aizap</t>
+  </si>
+  <si>
+    <t>Sandra Sarmiento/ Andrea Gutierrez</t>
+  </si>
+  <si>
+    <t>Plataforma Inversiones</t>
+  </si>
+  <si>
+    <t>Allail</t>
+  </si>
+  <si>
+    <t>En un futuro</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1109,6 +1211,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1498,7 +1606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1666,7 +1774,31 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1710,6 +1842,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1734,15 +1869,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1761,266 +1894,38 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2031,6 +1936,141 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2040,32 +2080,92 @@
     <xf numFmtId="0" fontId="15" fillId="15" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2079,37 +2179,46 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3121,8 +3230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3134,54 +3243,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="76" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>45</v>
       </c>
@@ -3191,9 +3298,7 @@
       <c r="A7" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>45</v>
       </c>
@@ -3203,9 +3308,7 @@
       <c r="A8" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>187</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>0</v>
       </c>
@@ -3217,9 +3320,7 @@
       <c r="A9" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>187</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>0</v>
       </c>
@@ -3239,19 +3340,17 @@
       <c r="A11" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>10</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="220"/>
-      <c r="B12" s="220"/>
-      <c r="C12" s="220"/>
-      <c r="D12" s="220"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
@@ -3269,9 +3368,7 @@
       <c r="A14" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="64">
-        <v>0.5</v>
-      </c>
+      <c r="B14" s="64"/>
       <c r="C14" s="1">
         <v>5</v>
       </c>
@@ -3281,9 +3378,7 @@
       <c r="A15" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>187</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>49</v>
       </c>
@@ -3293,9 +3388,7 @@
       <c r="A16" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1">
         <v>4</v>
       </c>
@@ -3305,9 +3398,7 @@
       <c r="A17" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1">
         <v>9</v>
       </c>
@@ -3317,9 +3408,7 @@
       <c r="A18" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1">
         <v>4</v>
       </c>
@@ -3329,9 +3418,7 @@
       <c r="A19" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1">
         <v>4</v>
       </c>
@@ -3349,9 +3436,7 @@
       <c r="A21" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="62" t="s">
-        <v>191</v>
-      </c>
+      <c r="B21" s="62"/>
       <c r="C21" s="1"/>
       <c r="D21" s="3"/>
     </row>
@@ -3359,9 +3444,7 @@
       <c r="A22" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1">
         <v>25</v>
       </c>
@@ -3371,9 +3454,7 @@
       <c r="A23" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1">
         <v>5</v>
       </c>
@@ -3383,23 +3464,23 @@
       <c r="A24" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="B24" s="218" t="str">
+      <c r="B24" s="73" t="str">
         <f>IF((IF((IF(B6="SI",C6,0)+IF(B7 ="SI",C7,0)+IF(B8 ="SI",C8,0)+IF(B9 ="SI",C9,0)+IF(B11="SI",C11,0))&gt;60,1,0)+IF((IF(B15="NO",C15,0)+IF(B16="SI",C16,0)+IF(B17="SI",C17,0)+IF(B18="SI",C18,0)+IF(B19="SI",C19,0)+IF(B22="SI",C22,0)+IF(B23="SI",C23,0))&gt;60,1,0))=2,"SI","NO")</f>
-        <v>SI</v>
-      </c>
-      <c r="C24" s="219"/>
-      <c r="D24" s="219"/>
+        <v>NO</v>
+      </c>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3432,86 +3513,309 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="221" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="222" t="s">
+      <c r="C1" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="222" t="s">
+      <c r="D1" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="221" t="s">
+      <c r="F1" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="221" t="s">
+      <c r="H1" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="K1" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="L1" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="M1" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="P1" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q1" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="R1" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="S1" s="69" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="221" t="s">
-        <v>227</v>
-      </c>
-      <c r="G1" s="221" t="s">
-        <v>228</v>
-      </c>
-      <c r="H1" s="221" t="s">
-        <v>229</v>
-      </c>
-      <c r="I1" s="221" t="s">
-        <v>230</v>
-      </c>
-      <c r="J1" s="221" t="s">
-        <v>231</v>
-      </c>
-      <c r="K1" s="223" t="s">
-        <v>232</v>
-      </c>
-      <c r="L1" s="221" t="s">
-        <v>233</v>
-      </c>
-      <c r="M1" s="224" t="s">
-        <v>234</v>
-      </c>
-      <c r="N1" s="223" t="s">
-        <v>235</v>
-      </c>
-      <c r="O1" s="221" t="s">
-        <v>236</v>
-      </c>
-      <c r="P1" s="221" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q1" s="221" t="s">
-        <v>238</v>
-      </c>
-      <c r="R1" s="221" t="s">
-        <v>239</v>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="225" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="225" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="225" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="225" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="225"/>
+      <c r="J6" s="225"/>
+      <c r="K6" s="225"/>
+      <c r="L6" s="225"/>
+      <c r="M6" s="225"/>
+      <c r="N6" s="225"/>
+      <c r="O6" s="225"/>
+      <c r="P6" s="225"/>
+      <c r="Q6" s="225"/>
+      <c r="R6" s="225"/>
+      <c r="S6" s="225"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3561,21 +3865,21 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -3593,17 +3897,17 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -3621,11 +3925,11 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -3649,24 +3953,24 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="81"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92"/>
       <c r="O5" s="7"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -3681,11 +3985,11 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="5"/>
       <c r="G6" s="24" t="s">
         <v>14</v>
@@ -3741,48 +4045,48 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="85"/>
-      <c r="I8" s="86"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="72" t="s">
+      <c r="K8" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="75" t="s">
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76"/>
-      <c r="X8" s="76"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
       <c r="Y8" s="9" t="s">
         <v>42</v>
       </c>
@@ -3791,12 +4095,12 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="71"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="10" t="s">
         <v>22</v>
       </c>
@@ -4561,7 +4865,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4603,356 +4907,356 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="195" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="187" t="s">
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="165"/>
-      <c r="J1" s="166"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="117"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="125"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="A2" s="198"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="120"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="125"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="190"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="120"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="125"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="188"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="190"/>
+      <c r="A4" s="198"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="120"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="190"/>
+      <c r="A5" s="198"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="125"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="190"/>
+      <c r="A6" s="198"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="128"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="191"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="192"/>
-      <c r="L7" s="217"/>
+      <c r="A7" s="201"/>
+      <c r="B7" s="202"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="203"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="193"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="195"/>
+      <c r="A8" s="124"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="126"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="129"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="str">
         <f ca="1">IF(B10 = "","",CONCATENATE($A$10,COUNTA($B10:C$11),"."))</f>
         <v>1.1.</v>
       </c>
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="182"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="113"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="str">
         <f ca="1">IF(B11 = "","",CONCATENATE($A$10,COUNTA($B$11:C11),"."))</f>
         <v>1.2.</v>
       </c>
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="182"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="str">
         <f ca="1">IF(B12 = "","",CONCATENATE($A$10,COUNTA($B$11:C12),"."))</f>
         <v>1.3.</v>
       </c>
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="181"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="181"/>
-      <c r="J12" s="182"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="113"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="135"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="205"/>
+      <c r="I13" s="205"/>
+      <c r="J13" s="206"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="180" t="s">
+      <c r="B14" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="181"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="182"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="113"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="180" t="s">
+      <c r="B15" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="182"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="113"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="132"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="158"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="142"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="183" t="s">
+      <c r="B17" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="166"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="184"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="185"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="168" t="s">
+      <c r="B18" s="130" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="169"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="171"/>
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
+      <c r="A19" s="133"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="172" t="s">
+      <c r="A20" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="174" t="s">
+      <c r="B20" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="176"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="129"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="173"/>
-      <c r="B21" s="177" t="s">
+      <c r="A21" s="135"/>
+      <c r="B21" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="178"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="177" t="s">
+      <c r="C21" s="137"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="178"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="177" t="s">
+      <c r="F21" s="137"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="178"/>
-      <c r="J21" s="179"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="138"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="156"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="97"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="110"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="161"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="166"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="166"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="117"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="150"/>
-      <c r="C24" s="150"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="152"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
     </row>
     <row r="25" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
@@ -4968,31 +5272,31 @@
     </row>
     <row r="26" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
     </row>
     <row r="27" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="141" t="s">
+      <c r="B27" s="162" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="146" t="s">
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="168"/>
       <c r="I27" s="56" t="s">
         <v>165</v>
       </c>
@@ -5007,15 +5311,15 @@
       <c r="A28" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="B28" s="143" t="s">
+      <c r="B28" s="164" t="s">
         <v>198</v>
       </c>
-      <c r="C28" s="144"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
       <c r="I28" s="55"/>
       <c r="J28" s="55"/>
       <c r="K28" s="54"/>
@@ -5024,17 +5328,17 @@
       <c r="A29" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="101" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="98" t="s">
+      <c r="C29" s="153"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
       <c r="I29" s="57">
         <v>43781</v>
       </c>
@@ -5049,11 +5353,11 @@
       <c r="A30" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="143" t="s">
+      <c r="B30" s="164" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="144"/>
-      <c r="D30" s="145"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="166"/>
       <c r="E30" s="41"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
@@ -5066,15 +5370,15 @@
       <c r="A31" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="101" t="s">
         <v>196</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
       <c r="I31" s="57">
         <v>43781</v>
       </c>
@@ -5089,15 +5393,15 @@
       <c r="A32" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
       <c r="I32" s="57">
         <v>43782</v>
       </c>
@@ -5112,15 +5416,15 @@
       <c r="A33" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="95"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="106"/>
       <c r="I33" s="57">
         <v>43784</v>
       </c>
@@ -5135,15 +5439,15 @@
       <c r="A34" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
       <c r="I34" s="57">
         <v>43784</v>
       </c>
@@ -5158,17 +5462,17 @@
       <c r="A35" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="101" t="s">
         <v>222</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="98" t="s">
+      <c r="C35" s="102"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
       <c r="I35" s="57">
         <v>43784</v>
       </c>
@@ -5183,15 +5487,15 @@
       <c r="A36" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="181" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="184"/>
+      <c r="F36" s="185"/>
+      <c r="G36" s="185"/>
+      <c r="H36" s="185"/>
       <c r="I36" s="54"/>
       <c r="J36" s="54"/>
       <c r="K36" s="54"/>
@@ -5200,15 +5504,15 @@
       <c r="A37" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
       <c r="I37" s="57">
         <v>43781</v>
       </c>
@@ -5223,15 +5527,15 @@
       <c r="A38" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="95"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="106"/>
       <c r="I38" s="57">
         <v>43781</v>
       </c>
@@ -5246,15 +5550,15 @@
       <c r="A39" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="107"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="189"/>
       <c r="I39" s="57">
         <v>43782</v>
       </c>
@@ -5269,15 +5573,15 @@
       <c r="A40" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="90" t="s">
+      <c r="B40" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="153"/>
       <c r="I40" s="57">
         <v>43783</v>
       </c>
@@ -5292,15 +5596,15 @@
       <c r="A41" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="111" t="s">
+      <c r="B41" s="215" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="112"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
+      <c r="C41" s="216"/>
+      <c r="D41" s="217"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="222"/>
+      <c r="G41" s="222"/>
+      <c r="H41" s="222"/>
       <c r="I41" s="57">
         <v>43787</v>
       </c>
@@ -5315,15 +5619,15 @@
       <c r="A42" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="181" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="183"/>
+      <c r="E42" s="186"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="187"/>
       <c r="I42" s="48"/>
       <c r="J42" s="48"/>
       <c r="K42" s="53"/>
@@ -5332,15 +5636,15 @@
       <c r="A43" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="C43" s="96"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="153"/>
       <c r="I43" s="57">
         <v>43787</v>
       </c>
@@ -5353,27 +5657,27 @@
     </row>
     <row r="44" spans="1:11" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
+      <c r="B44" s="177"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="214"/>
+      <c r="F44" s="178"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
     </row>
     <row r="45" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="B45" s="199" t="s">
+      <c r="B45" s="171" t="s">
         <v>209</v>
       </c>
-      <c r="C45" s="200"/>
-      <c r="D45" s="201"/>
-      <c r="E45" s="196"/>
-      <c r="F45" s="197"/>
-      <c r="G45" s="197"/>
-      <c r="H45" s="198"/>
+      <c r="C45" s="172"/>
+      <c r="D45" s="173"/>
+      <c r="E45" s="174"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="175"/>
+      <c r="H45" s="176"/>
       <c r="I45" s="54"/>
       <c r="J45" s="54"/>
       <c r="K45" s="54"/>
@@ -5382,19 +5686,19 @@
       <c r="A46" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="B46" s="108" t="s">
+      <c r="B46" s="177" t="s">
         <v>213</v>
       </c>
-      <c r="C46" s="108"/>
-      <c r="D46" s="203"/>
-      <c r="E46" s="202"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="180"/>
+      <c r="F46" s="178"/>
+      <c r="G46" s="178"/>
+      <c r="H46" s="178"/>
       <c r="I46" s="57">
         <v>43798</v>
       </c>
-      <c r="J46" s="204"/>
+      <c r="J46" s="65"/>
       <c r="K46" s="58" t="s">
         <v>212</v>
       </c>
@@ -5403,15 +5707,15 @@
       <c r="A47" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B47" s="207" t="s">
+      <c r="B47" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="206"/>
-      <c r="D47" s="206"/>
-      <c r="E47" s="206"/>
-      <c r="F47" s="169"/>
-      <c r="G47" s="169"/>
-      <c r="H47" s="169"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
       <c r="I47" s="57">
         <v>43798</v>
       </c>
@@ -5424,15 +5728,15 @@
       <c r="A48" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="B48" s="207" t="s">
+      <c r="B48" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="206"/>
-      <c r="D48" s="206"/>
-      <c r="E48" s="206"/>
-      <c r="F48" s="169"/>
-      <c r="G48" s="169"/>
-      <c r="H48" s="169"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
       <c r="I48" s="57">
         <v>43798</v>
       </c>
@@ -5443,15 +5747,15 @@
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="205"/>
-      <c r="J49" s="205"/>
+      <c r="B49" s="177"/>
+      <c r="C49" s="177"/>
+      <c r="D49" s="177"/>
+      <c r="E49" s="177"/>
+      <c r="F49" s="178"/>
+      <c r="G49" s="178"/>
+      <c r="H49" s="178"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
       <c r="K49" s="36"/>
       <c r="L49" s="36"/>
     </row>
@@ -5459,15 +5763,15 @@
       <c r="A50" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="B50" s="116" t="s">
+      <c r="B50" s="223" t="s">
         <v>216</v>
       </c>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="117"/>
-      <c r="H50" s="117"/>
+      <c r="C50" s="223"/>
+      <c r="D50" s="223"/>
+      <c r="E50" s="224"/>
+      <c r="F50" s="224"/>
+      <c r="G50" s="224"/>
+      <c r="H50" s="224"/>
       <c r="I50" s="54"/>
       <c r="J50" s="54"/>
       <c r="K50" s="54"/>
@@ -5476,15 +5780,15 @@
       <c r="A51" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="B51" s="90" t="s">
+      <c r="B51" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="C51" s="91"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="119"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="194"/>
+      <c r="G51" s="194"/>
+      <c r="H51" s="194"/>
       <c r="I51" s="57">
         <v>43790</v>
       </c>
@@ -5499,15 +5803,15 @@
       <c r="A52" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="B52" s="90" t="s">
+      <c r="B52" s="101" t="s">
         <v>179</v>
       </c>
-      <c r="C52" s="91"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="96"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
       <c r="I52" s="57">
         <v>43795</v>
       </c>
@@ -5522,15 +5826,15 @@
       <c r="A53" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="B53" s="90" t="s">
+      <c r="B53" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="C53" s="91"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="153"/>
+      <c r="G53" s="153"/>
+      <c r="H53" s="153"/>
       <c r="I53" s="57">
         <v>43798</v>
       </c>
@@ -5557,17 +5861,17 @@
       <c r="A55" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="136" t="s">
+      <c r="B55" s="159" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="137"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="136" t="s">
+      <c r="C55" s="160"/>
+      <c r="D55" s="192"/>
+      <c r="E55" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="F55" s="137"/>
-      <c r="G55" s="137"/>
-      <c r="H55" s="140"/>
+      <c r="F55" s="160"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="161"/>
       <c r="I55" s="49" t="s">
         <v>153</v>
       </c>
@@ -5579,15 +5883,15 @@
       <c r="A56" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="103" t="s">
+      <c r="B56" s="181" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="104"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115"/>
-      <c r="H56" s="208"/>
+      <c r="C56" s="182"/>
+      <c r="D56" s="183"/>
+      <c r="E56" s="186"/>
+      <c r="F56" s="187"/>
+      <c r="G56" s="187"/>
+      <c r="H56" s="188"/>
       <c r="I56" s="48"/>
       <c r="J56" s="48"/>
     </row>
@@ -5595,15 +5899,15 @@
       <c r="A57" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="90" t="s">
+      <c r="B57" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="91"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="106"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="107"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="189"/>
       <c r="I57" s="47"/>
       <c r="J57" s="3"/>
     </row>
@@ -5611,15 +5915,15 @@
       <c r="A58" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="90" t="s">
+      <c r="B58" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="96"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="96"/>
-      <c r="G58" s="96"/>
-      <c r="H58" s="96"/>
+      <c r="C58" s="153"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="153"/>
+      <c r="G58" s="153"/>
+      <c r="H58" s="153"/>
       <c r="I58" s="47"/>
       <c r="J58" s="3"/>
     </row>
@@ -5627,15 +5931,15 @@
       <c r="A59" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="90" t="s">
+      <c r="B59" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="91"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="106"/>
-      <c r="G59" s="106"/>
-      <c r="H59" s="106"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="108"/>
       <c r="I59" s="47"/>
       <c r="J59" s="3"/>
     </row>
@@ -5643,15 +5947,15 @@
       <c r="A60" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="90" t="s">
+      <c r="B60" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="91"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="101"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="102"/>
+      <c r="C60" s="102"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="190"/>
+      <c r="F60" s="191"/>
+      <c r="G60" s="191"/>
+      <c r="H60" s="191"/>
       <c r="I60" s="47"/>
       <c r="J60" s="3"/>
     </row>
@@ -5659,15 +5963,15 @@
       <c r="A61" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="90" t="s">
+      <c r="B61" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="91"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="101"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="102"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="190"/>
+      <c r="F61" s="191"/>
+      <c r="G61" s="191"/>
+      <c r="H61" s="191"/>
       <c r="I61" s="47"/>
       <c r="J61" s="3"/>
     </row>
@@ -5675,15 +5979,15 @@
       <c r="A62" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="103" t="s">
+      <c r="B62" s="181" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="104"/>
-      <c r="D62" s="105"/>
-      <c r="E62" s="120"/>
-      <c r="F62" s="121"/>
-      <c r="G62" s="121"/>
-      <c r="H62" s="121"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="183"/>
+      <c r="E62" s="184"/>
+      <c r="F62" s="185"/>
+      <c r="G62" s="185"/>
+      <c r="H62" s="185"/>
       <c r="I62" s="48"/>
       <c r="J62" s="48"/>
     </row>
@@ -5691,15 +5995,15 @@
       <c r="A63" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="90" t="s">
+      <c r="B63" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="91"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="96"/>
-      <c r="H63" s="96"/>
+      <c r="C63" s="102"/>
+      <c r="D63" s="103"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="153"/>
+      <c r="G63" s="153"/>
+      <c r="H63" s="153"/>
       <c r="I63" s="47"/>
       <c r="J63" s="3"/>
     </row>
@@ -5707,15 +6011,15 @@
       <c r="A64" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B64" s="90" t="s">
+      <c r="B64" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="91"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="98"/>
-      <c r="F64" s="119"/>
-      <c r="G64" s="119"/>
-      <c r="H64" s="119"/>
+      <c r="C64" s="102"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="194"/>
+      <c r="G64" s="194"/>
+      <c r="H64" s="194"/>
       <c r="I64" s="47"/>
       <c r="J64" s="3"/>
     </row>
@@ -5723,17 +6027,17 @@
       <c r="A65" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="90" t="s">
+      <c r="B65" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="91"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="98" t="s">
+      <c r="C65" s="102"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="F65" s="96"/>
-      <c r="G65" s="96"/>
-      <c r="H65" s="96"/>
+      <c r="F65" s="153"/>
+      <c r="G65" s="153"/>
+      <c r="H65" s="153"/>
       <c r="I65" s="47"/>
       <c r="J65" s="3"/>
     </row>
@@ -5741,15 +6045,15 @@
       <c r="A66" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="B66" s="90" t="s">
+      <c r="B66" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="91"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="101"/>
-      <c r="F66" s="102"/>
-      <c r="G66" s="102"/>
-      <c r="H66" s="102"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="190"/>
+      <c r="F66" s="191"/>
+      <c r="G66" s="191"/>
+      <c r="H66" s="191"/>
       <c r="I66" s="47"/>
       <c r="J66" s="3"/>
     </row>
@@ -5757,15 +6061,15 @@
       <c r="A67" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="B67" s="103" t="s">
+      <c r="B67" s="181" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="104"/>
-      <c r="D67" s="105"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="139"/>
-      <c r="G67" s="139"/>
-      <c r="H67" s="139"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="183"/>
+      <c r="E67" s="184"/>
+      <c r="F67" s="193"/>
+      <c r="G67" s="193"/>
+      <c r="H67" s="193"/>
       <c r="I67" s="48"/>
       <c r="J67" s="48"/>
     </row>
@@ -5773,15 +6077,15 @@
       <c r="A68" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="90" t="s">
+      <c r="B68" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="C68" s="91"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="98"/>
-      <c r="F68" s="106"/>
-      <c r="G68" s="106"/>
-      <c r="H68" s="106"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="107"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="108"/>
+      <c r="H68" s="108"/>
       <c r="I68" s="47"/>
       <c r="J68" s="3"/>
     </row>
@@ -5789,17 +6093,17 @@
       <c r="A69" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="B69" s="90" t="s">
+      <c r="B69" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="91"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="98" t="s">
+      <c r="C69" s="102"/>
+      <c r="D69" s="103"/>
+      <c r="E69" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="F69" s="106"/>
-      <c r="G69" s="106"/>
-      <c r="H69" s="106"/>
+      <c r="F69" s="108"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="108"/>
       <c r="I69" s="47"/>
       <c r="J69" s="3"/>
     </row>
@@ -5807,15 +6111,15 @@
       <c r="A70" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="90" t="s">
+      <c r="B70" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="91"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="98"/>
-      <c r="F70" s="106"/>
-      <c r="G70" s="106"/>
-      <c r="H70" s="106"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="103"/>
+      <c r="E70" s="107"/>
+      <c r="F70" s="108"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="108"/>
       <c r="I70" s="47"/>
       <c r="J70" s="3"/>
     </row>
@@ -5823,17 +6127,17 @@
       <c r="A71" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="90" t="s">
+      <c r="B71" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="91"/>
-      <c r="D71" s="92"/>
-      <c r="E71" s="90" t="s">
+      <c r="C71" s="102"/>
+      <c r="D71" s="103"/>
+      <c r="E71" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="F71" s="91"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="91"/>
+      <c r="F71" s="102"/>
+      <c r="G71" s="102"/>
+      <c r="H71" s="102"/>
       <c r="I71" s="47"/>
       <c r="J71" s="3"/>
     </row>
@@ -5841,15 +6145,15 @@
       <c r="A72" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B72" s="90" t="s">
+      <c r="B72" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="C72" s="91"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="91"/>
-      <c r="G72" s="91"/>
-      <c r="H72" s="91"/>
+      <c r="C72" s="102"/>
+      <c r="D72" s="103"/>
+      <c r="E72" s="101"/>
+      <c r="F72" s="102"/>
+      <c r="G72" s="102"/>
+      <c r="H72" s="102"/>
       <c r="I72" s="47"/>
       <c r="J72" s="3"/>
     </row>
@@ -5857,15 +6161,15 @@
       <c r="A73" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B73" s="90" t="s">
+      <c r="B73" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="C73" s="91"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="98"/>
-      <c r="F73" s="106"/>
-      <c r="G73" s="106"/>
-      <c r="H73" s="106"/>
+      <c r="C73" s="102"/>
+      <c r="D73" s="103"/>
+      <c r="E73" s="107"/>
+      <c r="F73" s="108"/>
+      <c r="G73" s="108"/>
+      <c r="H73" s="108"/>
       <c r="I73" s="47"/>
       <c r="J73" s="3"/>
     </row>
@@ -5873,15 +6177,15 @@
       <c r="A74" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B74" s="90" t="s">
+      <c r="B74" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="C74" s="91"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="98"/>
-      <c r="F74" s="106"/>
-      <c r="G74" s="106"/>
-      <c r="H74" s="106"/>
+      <c r="C74" s="102"/>
+      <c r="D74" s="103"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="108"/>
+      <c r="G74" s="108"/>
+      <c r="H74" s="108"/>
       <c r="I74" s="47"/>
       <c r="J74" s="3"/>
     </row>
@@ -5889,15 +6193,15 @@
       <c r="A75" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="B75" s="90" t="s">
+      <c r="B75" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="C75" s="91"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="101"/>
-      <c r="F75" s="102"/>
-      <c r="G75" s="102"/>
-      <c r="H75" s="102"/>
+      <c r="C75" s="102"/>
+      <c r="D75" s="103"/>
+      <c r="E75" s="190"/>
+      <c r="F75" s="191"/>
+      <c r="G75" s="191"/>
+      <c r="H75" s="191"/>
       <c r="I75" s="47"/>
       <c r="J75" s="3"/>
     </row>
@@ -5905,15 +6209,15 @@
       <c r="A76" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B76" s="103" t="s">
+      <c r="B76" s="181" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="104"/>
-      <c r="D76" s="105"/>
-      <c r="E76" s="103"/>
-      <c r="F76" s="121"/>
-      <c r="G76" s="121"/>
-      <c r="H76" s="121"/>
+      <c r="C76" s="182"/>
+      <c r="D76" s="183"/>
+      <c r="E76" s="181"/>
+      <c r="F76" s="185"/>
+      <c r="G76" s="185"/>
+      <c r="H76" s="185"/>
       <c r="I76" s="48"/>
       <c r="J76" s="48"/>
     </row>
@@ -5921,17 +6225,17 @@
       <c r="A77" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B77" s="90" t="s">
+      <c r="B77" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="91"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="90" t="s">
+      <c r="C77" s="102"/>
+      <c r="D77" s="103"/>
+      <c r="E77" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="F77" s="96"/>
-      <c r="G77" s="96"/>
-      <c r="H77" s="96"/>
+      <c r="F77" s="153"/>
+      <c r="G77" s="153"/>
+      <c r="H77" s="153"/>
       <c r="I77" s="47"/>
       <c r="J77" s="3"/>
     </row>
@@ -5939,15 +6243,15 @@
       <c r="A78" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="103" t="s">
+      <c r="B78" s="181" t="s">
         <v>112</v>
       </c>
-      <c r="C78" s="104"/>
-      <c r="D78" s="105"/>
-      <c r="E78" s="103"/>
-      <c r="F78" s="121"/>
-      <c r="G78" s="121"/>
-      <c r="H78" s="121"/>
+      <c r="C78" s="182"/>
+      <c r="D78" s="183"/>
+      <c r="E78" s="181"/>
+      <c r="F78" s="185"/>
+      <c r="G78" s="185"/>
+      <c r="H78" s="185"/>
       <c r="I78" s="48"/>
       <c r="J78" s="48"/>
     </row>
@@ -5955,17 +6259,17 @@
       <c r="A79" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="B79" s="90" t="s">
+      <c r="B79" s="101" t="s">
         <v>214</v>
       </c>
-      <c r="C79" s="91"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="90" t="s">
+      <c r="C79" s="102"/>
+      <c r="D79" s="103"/>
+      <c r="E79" s="101" t="s">
         <v>215</v>
       </c>
-      <c r="F79" s="91"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="91"/>
+      <c r="F79" s="102"/>
+      <c r="G79" s="102"/>
+      <c r="H79" s="102"/>
       <c r="I79" s="47"/>
       <c r="J79" s="3"/>
     </row>
@@ -5973,15 +6277,15 @@
       <c r="A80" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="B80" s="103" t="s">
+      <c r="B80" s="181" t="s">
         <v>93</v>
       </c>
-      <c r="C80" s="104"/>
-      <c r="D80" s="105"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="121"/>
-      <c r="G80" s="121"/>
-      <c r="H80" s="121"/>
+      <c r="C80" s="182"/>
+      <c r="D80" s="183"/>
+      <c r="E80" s="181"/>
+      <c r="F80" s="185"/>
+      <c r="G80" s="185"/>
+      <c r="H80" s="185"/>
       <c r="I80" s="48"/>
       <c r="J80" s="48"/>
     </row>
@@ -5989,15 +6293,15 @@
       <c r="A81" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="B81" s="90" t="s">
+      <c r="B81" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="91"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="96"/>
-      <c r="H81" s="96"/>
+      <c r="C81" s="102"/>
+      <c r="D81" s="103"/>
+      <c r="E81" s="101"/>
+      <c r="F81" s="153"/>
+      <c r="G81" s="153"/>
+      <c r="H81" s="153"/>
       <c r="I81" s="47"/>
       <c r="J81" s="3"/>
     </row>
@@ -6005,15 +6309,15 @@
       <c r="A82" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="B82" s="90" t="s">
+      <c r="B82" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="91"/>
-      <c r="D82" s="92"/>
-      <c r="E82" s="98"/>
-      <c r="F82" s="106"/>
-      <c r="G82" s="106"/>
-      <c r="H82" s="106"/>
+      <c r="C82" s="102"/>
+      <c r="D82" s="103"/>
+      <c r="E82" s="107"/>
+      <c r="F82" s="108"/>
+      <c r="G82" s="108"/>
+      <c r="H82" s="108"/>
       <c r="I82" s="47"/>
       <c r="J82" s="3"/>
     </row>
@@ -6021,15 +6325,15 @@
       <c r="A83" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="B83" s="90" t="s">
+      <c r="B83" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="C83" s="91"/>
-      <c r="D83" s="92"/>
-      <c r="E83" s="98"/>
-      <c r="F83" s="96"/>
-      <c r="G83" s="96"/>
-      <c r="H83" s="96"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="103"/>
+      <c r="E83" s="107"/>
+      <c r="F83" s="153"/>
+      <c r="G83" s="153"/>
+      <c r="H83" s="153"/>
       <c r="I83" s="47"/>
       <c r="J83" s="3"/>
     </row>
@@ -6037,91 +6341,136 @@
       <c r="A84" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="B84" s="209" t="s">
+      <c r="B84" s="207" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="210"/>
-      <c r="D84" s="211"/>
-      <c r="E84" s="212"/>
-      <c r="F84" s="165"/>
-      <c r="G84" s="165"/>
-      <c r="H84" s="165"/>
+      <c r="C84" s="208"/>
+      <c r="D84" s="209"/>
+      <c r="E84" s="210"/>
+      <c r="F84" s="116"/>
+      <c r="G84" s="116"/>
+      <c r="H84" s="116"/>
       <c r="I84" s="47"/>
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="213" t="s">
+      <c r="A85" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="B85" s="214" t="s">
+      <c r="B85" s="211" t="s">
         <v>97</v>
       </c>
-      <c r="C85" s="214"/>
-      <c r="D85" s="214"/>
-      <c r="E85" s="215"/>
-      <c r="F85" s="216"/>
-      <c r="G85" s="216"/>
-      <c r="H85" s="216"/>
+      <c r="C85" s="211"/>
+      <c r="D85" s="211"/>
+      <c r="E85" s="212"/>
+      <c r="F85" s="213"/>
+      <c r="G85" s="213"/>
+      <c r="H85" s="213"/>
       <c r="I85" s="51"/>
       <c r="J85" s="52"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="87"/>
-      <c r="B86" s="88"/>
-      <c r="C86" s="88"/>
-      <c r="D86" s="88"/>
-      <c r="E86" s="88"/>
-      <c r="F86" s="88"/>
-      <c r="G86" s="88"/>
-      <c r="H86" s="88"/>
-      <c r="I86" s="88"/>
-      <c r="J86" s="89"/>
+      <c r="A86" s="218"/>
+      <c r="B86" s="219"/>
+      <c r="C86" s="219"/>
+      <c r="D86" s="219"/>
+      <c r="E86" s="219"/>
+      <c r="F86" s="219"/>
+      <c r="G86" s="219"/>
+      <c r="H86" s="219"/>
+      <c r="I86" s="219"/>
+      <c r="J86" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="H1:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A86:J86"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="E55:H55"/>
@@ -6144,97 +6493,52 @@
     <mergeCell ref="E49:H49"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="E46:H46"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="H1:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:J17"/>
     <mergeCell ref="A1:G7"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:J13"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="A86:J86"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" sqref="D14:J14">
